--- a/scraper_embeddings/scraped_sections.xlsx
+++ b/scraper_embeddings/scraped_sections.xlsx
@@ -1,12 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nedia\iCloudDrive\Documents\0 Data\0 AIEdge MLops course\Capstone project\ask_divya\scraper_embeddings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDDA9CCE-90DD-400C-BFE9-A7B07C9766D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="30060" windowHeight="19275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="scraped_sections.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="scraped_sections.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5241,21 +5264,7 @@
 Q30. What happens if my payment initially clears, but then fails (for example, payment is made using an electronic check that my bank then returns)?
 A30. It is your responsibility to submit valid payment.
 When paying by check, please be sure to enter the bank routing number and bank account number accurately. While the status of the registration in the system will indicate “submitted” following completion of the Pay.gov payment process, the submission will only be valid once your payment clears. If your checking information is not accurate, your payment will be declined when presented to your financial institution. If your payment is declined, your H-1B registration will be invalidated.
-If payment is completed with a credit card or debit card, the status of the registration in the system will indicate “submitted” following completion of the Pay.gov payment process. The submission, however, will only be valid once processing of the payment is completed. If the payment is later declined, rejected, disputed, or canceled after submission, the registration will be invalidated.
-If your payment fails, we will attempt to notify you, but the burden will be on you to determine the status of your required payment. If your registration is invalidated while the registration period is still open, you will be able to submit a new registration with a valid payment. If your registration is invalidated due to a failed payment after the registration period closes, you will not be able to submit a new registration. Registrations can be submitted and paid for until the registration period closes at noon Eastern on March 17, 2023.
-Q31. The Form G-28 client passcode does not work when the client tries to enter it. There is an error message that indicates an email mismatch or invalid passcode. Why is this occurring?
-A31. Prospective petitioners (registrants) must create registrant accounts for H-1B registration and, if submitting registrations through a representative, must enter the case access passcode from their representatives to connect the accounts and submit the registrations. When filling out the Form G-28, the representative must enter the same email address the registrant used when creating their USCIS account. If the representative entered an incorrect email address for the registrant, the representative could recall the Form G-28 by clicking the “Recall G-28 for edits” button at the bottom of the account homepage. The recall feature is available to the representative once the client has reviewed the registrations but before the client attempts to link to the representative account. The recall feature is not available if the client has attempted to link the account.
-Q32. What happens if an attorney represents a company that has several offices throughout the United States that all have the same employer identification number but different human resources contacts (signatory representatives for each of the offices or departments). How does the attorney set them up as a client and allow the contact for each division to sign for submissions of employees in their division? Does the client need to provide only one company contact for all their offices?
-A32. The attorney can designate multiple authorized officials in a client company. The company would need to have the individuals at each office create their own registrant account for which they are authorized to sign. The attorney would then be able to send the registrations to the relevant authorized official for that submission.
-Q33. May an authorized signatory within the company, who is different from the authorized signatory who signed the H-1B electronic registration, sign the paper Form I-129?
-A33. Yes. The authorized signatory who signed the registration does not need to be the same authorized signatory who signs the Form I-129. However, the prospective petitioner (registrant) at the registration stage must match the petitioner at the Form I-129 stage.
-Additional Resources
-Overview of the H-1B Electronic Registration Process - A Webinar for Registrants  (PDF, 5.73 MB)
-Overview of the H-1B Electronic Registration Process - A Webinar for Attorneys and Representatives  (PDF, 10.99 MB)
-Related Links
-H-1B Registration Federal Register Notice
-H-1B Registration Final Rule
-</t>
+If payment is completed with a credit card or debit card, the status of the registration in the system will indicate “submitted” following completion of the Pay.gov payment process. The submission, however, will only be valid once processing of the payment is completed. If the payment is l</t>
   </si>
   <si>
     <t>https://www.uscis.gov/working-in-the-united-states/temporary-workers/h-1b-specialty-occupations-and-fashion-models/h-1b-cap-season</t>
@@ -6185,7 +6194,7 @@
 ANSWER: USCIS has not yet received enough applications to adequately determine typical processing times for Form I-941. You should direct any questions pertaining to consular processing times to Department of State.
 Question relating to Form I-941
 Form I-941 appears to have an error at Part 5, item 19a. It refers to “10” qualified jobs. But I understand that DHS amended the final rule to require that, when applying for re-parole, the startup entity only needs to provide evidence of having created “5” qualified jobs during the initial parole period. Please clarify.
-ANSWER: The prior version of Form I-941 contained a typographical error at Part 5, item 19a. The newest, corrected version of the form  says that the number of qualified jobs required when applying for re-parole is “5.” The correct version of the form is available on the USCIS website (PDF, 766.7 KB).</t>
+ANSWER: The prior version of Form I-941 contained a typographical error at Part 5, item 19a. The newest, corrected version of the form  says that the number of qualified jobs required when applying for re-parole is “5.” The correct version of the form is available on the USCIS websit</t>
   </si>
   <si>
     <t>https://www.uscis.gov/working-in-the-united-states/temporary-workers/h-2b-non-agricultural-workers/cap-count-for-h-2b-nonimmigrants</t>
@@ -6902,22 +6911,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6925,39 +6937,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -7147,20 +7164,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7174,7 +7202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7188,7 +7216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -7202,7 +7230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7216,7 +7244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -7230,7 +7258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -7244,7 +7272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -7258,7 +7286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -7272,7 +7300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -7286,7 +7314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -7300,7 +7328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -7314,7 +7342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -7328,7 +7356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -7342,7 +7370,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -7356,7 +7384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -7370,7 +7398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -7384,7 +7412,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -7398,7 +7426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -7412,7 +7440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -7426,7 +7454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -7440,7 +7468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -7454,7 +7482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -7468,7 +7496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -7482,7 +7510,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -7496,7 +7524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -7510,7 +7538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -7524,7 +7552,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
@@ -7538,7 +7566,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -7552,7 +7580,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
@@ -7566,7 +7594,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
@@ -7580,7 +7608,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
@@ -7594,7 +7622,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
@@ -7608,7 +7636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
@@ -7622,7 +7650,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -7636,7 +7664,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -7650,7 +7678,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>97</v>
       </c>
@@ -7664,7 +7692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>100</v>
       </c>
@@ -7678,7 +7706,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>100</v>
       </c>
@@ -7692,7 +7720,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -7703,7 +7731,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -7717,7 +7745,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
@@ -7731,7 +7759,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>108</v>
       </c>
@@ -7745,7 +7773,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>108</v>
       </c>
@@ -7759,7 +7787,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
@@ -7773,7 +7801,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
@@ -7787,7 +7815,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>122</v>
       </c>
@@ -7801,7 +7829,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>125</v>
       </c>
@@ -7815,7 +7843,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>129</v>
       </c>
@@ -7826,7 +7854,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>131</v>
       </c>
@@ -7840,7 +7868,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>134</v>
       </c>
@@ -7854,7 +7882,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>137</v>
       </c>
@@ -7868,7 +7896,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -7882,7 +7910,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
@@ -7896,7 +7924,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>147</v>
       </c>
@@ -7910,7 +7938,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>147</v>
       </c>
@@ -7924,7 +7952,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>147</v>
       </c>
@@ -7938,7 +7966,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>147</v>
       </c>
@@ -7952,7 +7980,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>147</v>
       </c>
@@ -7966,7 +7994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>159</v>
       </c>
@@ -7980,7 +8008,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>159</v>
       </c>
@@ -7994,7 +8022,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -8008,7 +8036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>159</v>
       </c>
@@ -8022,7 +8050,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>159</v>
       </c>
@@ -8036,7 +8064,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>170</v>
       </c>
@@ -8050,7 +8078,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>173</v>
       </c>
@@ -8064,7 +8092,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>177</v>
       </c>
@@ -8078,7 +8106,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>177</v>
       </c>
@@ -8092,7 +8120,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>177</v>
       </c>
@@ -8106,7 +8134,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>185</v>
       </c>
@@ -8120,7 +8148,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>188</v>
       </c>
@@ -8134,7 +8162,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>191</v>
       </c>
@@ -8148,7 +8176,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>194</v>
       </c>
@@ -8162,7 +8190,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>198</v>
       </c>
@@ -8176,7 +8204,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>198</v>
       </c>
@@ -8190,7 +8218,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>198</v>
       </c>
@@ -8204,7 +8232,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>206</v>
       </c>
@@ -8218,7 +8246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>209</v>
       </c>
@@ -8232,7 +8260,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>209</v>
       </c>
@@ -8246,7 +8274,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>209</v>
       </c>
@@ -8260,7 +8288,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>217</v>
       </c>
@@ -8274,7 +8302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>217</v>
       </c>
@@ -8288,7 +8316,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>217</v>
       </c>
@@ -8302,7 +8330,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>217</v>
       </c>
@@ -8316,7 +8344,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>217</v>
       </c>
@@ -8330,7 +8358,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>227</v>
       </c>
@@ -8344,7 +8372,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>227</v>
       </c>
@@ -8358,7 +8386,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>227</v>
       </c>
@@ -8372,7 +8400,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>234</v>
       </c>
@@ -8386,7 +8414,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>234</v>
       </c>
@@ -8400,7 +8428,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>234</v>
       </c>
@@ -8414,7 +8442,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>234</v>
       </c>
@@ -8428,7 +8456,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>234</v>
       </c>
@@ -8442,7 +8470,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>234</v>
       </c>
@@ -8456,7 +8484,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>234</v>
       </c>
@@ -8470,7 +8498,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>250</v>
       </c>
@@ -8484,7 +8512,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>253</v>
       </c>
@@ -8498,7 +8526,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>256</v>
       </c>
@@ -8512,7 +8540,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>259</v>
       </c>
@@ -8526,7 +8554,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>262</v>
       </c>
@@ -8540,7 +8568,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>262</v>
       </c>
@@ -8554,7 +8582,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>262</v>
       </c>
@@ -8568,7 +8596,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>262</v>
       </c>
@@ -8582,7 +8610,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>262</v>
       </c>
@@ -8596,7 +8624,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>262</v>
       </c>
@@ -8610,7 +8638,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>262</v>
       </c>
@@ -8624,7 +8652,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>277</v>
       </c>
@@ -8638,7 +8666,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>277</v>
       </c>
@@ -8652,7 +8680,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>277</v>
       </c>
@@ -8666,7 +8694,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>277</v>
       </c>
@@ -8680,7 +8708,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>277</v>
       </c>
@@ -8694,7 +8722,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>277</v>
       </c>
@@ -8708,7 +8736,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>277</v>
       </c>
@@ -8722,7 +8750,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>277</v>
       </c>
@@ -8736,7 +8764,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>295</v>
       </c>
@@ -8750,7 +8778,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>299</v>
       </c>
@@ -8764,7 +8792,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>303</v>
       </c>
@@ -8778,7 +8806,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>306</v>
       </c>
@@ -8792,7 +8820,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>306</v>
       </c>
@@ -8806,7 +8834,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>312</v>
       </c>
@@ -8820,7 +8848,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>315</v>
       </c>
@@ -8834,7 +8862,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>315</v>
       </c>
@@ -8848,7 +8876,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>321</v>
       </c>
@@ -8862,7 +8890,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>324</v>
       </c>
@@ -8876,7 +8904,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>327</v>
       </c>
@@ -8890,7 +8918,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>327</v>
       </c>
@@ -8904,7 +8932,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>327</v>
       </c>
@@ -8918,7 +8946,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>327</v>
       </c>
@@ -8932,7 +8960,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>327</v>
       </c>
@@ -8946,7 +8974,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>338</v>
       </c>
@@ -8960,7 +8988,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>341</v>
       </c>
@@ -8974,7 +9002,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>344</v>
       </c>
@@ -8988,7 +9016,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>347</v>
       </c>
@@ -9002,7 +9030,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>347</v>
       </c>
@@ -9016,7 +9044,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>347</v>
       </c>
@@ -9030,7 +9058,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>347</v>
       </c>
@@ -9044,7 +9072,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>347</v>
       </c>
@@ -9058,7 +9086,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>347</v>
       </c>
@@ -9072,7 +9100,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>347</v>
       </c>
@@ -9086,7 +9114,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>347</v>
       </c>
@@ -9100,7 +9128,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>365</v>
       </c>
@@ -9114,7 +9142,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>368</v>
       </c>
@@ -9128,7 +9156,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>368</v>
       </c>
@@ -9142,7 +9170,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>368</v>
       </c>
@@ -9156,7 +9184,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>376</v>
       </c>
@@ -9170,7 +9198,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>379</v>
       </c>
@@ -9184,7 +9212,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>382</v>
       </c>
@@ -9198,7 +9226,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>386</v>
       </c>
@@ -9212,7 +9240,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>389</v>
       </c>
@@ -9226,7 +9254,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>392</v>
       </c>
@@ -9240,7 +9268,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>395</v>
       </c>
@@ -9254,7 +9282,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>398</v>
       </c>
@@ -9268,7 +9296,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>398</v>
       </c>
@@ -9282,7 +9310,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>398</v>
       </c>
@@ -9296,7 +9324,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>398</v>
       </c>
@@ -9310,7 +9338,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>398</v>
       </c>
@@ -9324,7 +9352,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>398</v>
       </c>
@@ -9338,7 +9366,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>398</v>
       </c>
@@ -9352,7 +9380,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>414</v>
       </c>
@@ -9366,7 +9394,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>417</v>
       </c>
@@ -9380,7 +9408,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>417</v>
       </c>
@@ -9394,7 +9422,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>417</v>
       </c>
@@ -9408,7 +9436,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>417</v>
       </c>
@@ -9422,7 +9450,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>417</v>
       </c>
@@ -9436,7 +9464,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>429</v>
       </c>
@@ -9450,7 +9478,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>429</v>
       </c>
@@ -9464,7 +9492,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>429</v>
       </c>
@@ -9478,7 +9506,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>436</v>
       </c>
@@ -9492,7 +9520,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>439</v>
       </c>
@@ -9506,7 +9534,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>439</v>
       </c>
@@ -9520,7 +9548,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>439</v>
       </c>
@@ -9534,7 +9562,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>439</v>
       </c>
@@ -9548,7 +9576,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>439</v>
       </c>
@@ -9562,7 +9590,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>451</v>
       </c>
@@ -9576,7 +9604,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>454</v>
       </c>
@@ -9590,7 +9618,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>454</v>
       </c>
@@ -9604,7 +9632,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>454</v>
       </c>
@@ -9618,7 +9646,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>454</v>
       </c>
@@ -9632,7 +9660,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>454</v>
       </c>
@@ -9646,7 +9674,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>454</v>
       </c>
@@ -9660,7 +9688,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>454</v>
       </c>
@@ -9674,7 +9702,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>470</v>
       </c>
@@ -9688,7 +9716,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>473</v>
       </c>
@@ -9702,7 +9730,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>476</v>
       </c>
@@ -9716,7 +9744,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>479</v>
       </c>
@@ -9730,7 +9758,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>482</v>
       </c>
@@ -9744,7 +9772,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>486</v>
       </c>
@@ -9758,7 +9786,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>486</v>
       </c>
@@ -9772,7 +9800,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>486</v>
       </c>
@@ -9786,7 +9814,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>486</v>
       </c>
@@ -9800,7 +9828,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>486</v>
       </c>
@@ -9814,7 +9842,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>486</v>
       </c>
@@ -9828,7 +9856,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>486</v>
       </c>
@@ -9842,7 +9870,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>486</v>
       </c>
@@ -9856,7 +9884,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>486</v>
       </c>
@@ -9870,7 +9898,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>506</v>
       </c>
@@ -9884,7 +9912,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>510</v>
       </c>
@@ -9898,7 +9926,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>513</v>
       </c>
@@ -9912,7 +9940,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>513</v>
       </c>
@@ -9926,7 +9954,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>513</v>
       </c>
@@ -9940,7 +9968,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>513</v>
       </c>
@@ -9956,206 +9984,206 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
-    <hyperlink r:id="rId28" ref="A29"/>
-    <hyperlink r:id="rId29" ref="A30"/>
-    <hyperlink r:id="rId30" ref="A31"/>
-    <hyperlink r:id="rId31" ref="A32"/>
-    <hyperlink r:id="rId32" ref="A33"/>
-    <hyperlink r:id="rId33" ref="A34"/>
-    <hyperlink r:id="rId34" ref="A35"/>
-    <hyperlink r:id="rId35" ref="A36"/>
-    <hyperlink r:id="rId36" ref="A37"/>
-    <hyperlink r:id="rId37" ref="A38"/>
-    <hyperlink r:id="rId38" ref="A39"/>
-    <hyperlink r:id="rId39" ref="A40"/>
-    <hyperlink r:id="rId40" ref="A41"/>
-    <hyperlink r:id="rId41" ref="A42"/>
-    <hyperlink r:id="rId42" ref="A43"/>
-    <hyperlink r:id="rId43" ref="A44"/>
-    <hyperlink r:id="rId44" ref="A45"/>
-    <hyperlink r:id="rId45" ref="A46"/>
-    <hyperlink r:id="rId46" ref="A47"/>
-    <hyperlink r:id="rId47" ref="A48"/>
-    <hyperlink r:id="rId48" ref="A49"/>
-    <hyperlink r:id="rId49" ref="A50"/>
-    <hyperlink r:id="rId50" ref="A51"/>
-    <hyperlink r:id="rId51" ref="A52"/>
-    <hyperlink r:id="rId52" ref="A53"/>
-    <hyperlink r:id="rId53" ref="A54"/>
-    <hyperlink r:id="rId54" ref="A55"/>
-    <hyperlink r:id="rId55" ref="A56"/>
-    <hyperlink r:id="rId56" ref="A57"/>
-    <hyperlink r:id="rId57" ref="A58"/>
-    <hyperlink r:id="rId58" ref="A59"/>
-    <hyperlink r:id="rId59" ref="A60"/>
-    <hyperlink r:id="rId60" ref="A61"/>
-    <hyperlink r:id="rId61" ref="A62"/>
-    <hyperlink r:id="rId62" ref="A63"/>
-    <hyperlink r:id="rId63" ref="A64"/>
-    <hyperlink r:id="rId64" ref="A65"/>
-    <hyperlink r:id="rId65" ref="A66"/>
-    <hyperlink r:id="rId66" ref="A67"/>
-    <hyperlink r:id="rId67" ref="A68"/>
-    <hyperlink r:id="rId68" ref="A69"/>
-    <hyperlink r:id="rId69" ref="A70"/>
-    <hyperlink r:id="rId70" ref="A71"/>
-    <hyperlink r:id="rId71" ref="A72"/>
-    <hyperlink r:id="rId72" ref="A73"/>
-    <hyperlink r:id="rId73" ref="A74"/>
-    <hyperlink r:id="rId74" ref="A75"/>
-    <hyperlink r:id="rId75" ref="A76"/>
-    <hyperlink r:id="rId76" ref="A77"/>
-    <hyperlink r:id="rId77" ref="A78"/>
-    <hyperlink r:id="rId78" ref="A79"/>
-    <hyperlink r:id="rId79" ref="A80"/>
-    <hyperlink r:id="rId80" ref="A81"/>
-    <hyperlink r:id="rId81" ref="A82"/>
-    <hyperlink r:id="rId82" ref="A83"/>
-    <hyperlink r:id="rId83" ref="A84"/>
-    <hyperlink r:id="rId84" ref="A85"/>
-    <hyperlink r:id="rId85" ref="A86"/>
-    <hyperlink r:id="rId86" ref="A87"/>
-    <hyperlink r:id="rId87" ref="A88"/>
-    <hyperlink r:id="rId88" ref="A89"/>
-    <hyperlink r:id="rId89" ref="A90"/>
-    <hyperlink r:id="rId90" ref="A91"/>
-    <hyperlink r:id="rId91" ref="A92"/>
-    <hyperlink r:id="rId92" ref="A93"/>
-    <hyperlink r:id="rId93" ref="A94"/>
-    <hyperlink r:id="rId94" ref="A95"/>
-    <hyperlink r:id="rId95" ref="A96"/>
-    <hyperlink r:id="rId96" ref="A97"/>
-    <hyperlink r:id="rId97" ref="A98"/>
-    <hyperlink r:id="rId98" ref="A99"/>
-    <hyperlink r:id="rId99" ref="A100"/>
-    <hyperlink r:id="rId100" ref="A101"/>
-    <hyperlink r:id="rId101" ref="A102"/>
-    <hyperlink r:id="rId102" ref="A103"/>
-    <hyperlink r:id="rId103" ref="A104"/>
-    <hyperlink r:id="rId104" ref="A105"/>
-    <hyperlink r:id="rId105" ref="A106"/>
-    <hyperlink r:id="rId106" ref="A107"/>
-    <hyperlink r:id="rId107" ref="A108"/>
-    <hyperlink r:id="rId108" ref="A109"/>
-    <hyperlink r:id="rId109" ref="A110"/>
-    <hyperlink r:id="rId110" ref="A111"/>
-    <hyperlink r:id="rId111" ref="A112"/>
-    <hyperlink r:id="rId112" ref="A113"/>
-    <hyperlink r:id="rId113" ref="A114"/>
-    <hyperlink r:id="rId114" ref="A115"/>
-    <hyperlink r:id="rId115" ref="A116"/>
-    <hyperlink r:id="rId116" ref="A117"/>
-    <hyperlink r:id="rId117" ref="A118"/>
-    <hyperlink r:id="rId118" ref="A119"/>
-    <hyperlink r:id="rId119" ref="A120"/>
-    <hyperlink r:id="rId120" ref="A121"/>
-    <hyperlink r:id="rId121" ref="A122"/>
-    <hyperlink r:id="rId122" ref="A123"/>
-    <hyperlink r:id="rId123" ref="A124"/>
-    <hyperlink r:id="rId124" ref="A125"/>
-    <hyperlink r:id="rId125" ref="A126"/>
-    <hyperlink r:id="rId126" ref="A127"/>
-    <hyperlink r:id="rId127" ref="A128"/>
-    <hyperlink r:id="rId128" ref="A129"/>
-    <hyperlink r:id="rId129" ref="A130"/>
-    <hyperlink r:id="rId130" ref="A131"/>
-    <hyperlink r:id="rId131" ref="A132"/>
-    <hyperlink r:id="rId132" ref="A133"/>
-    <hyperlink r:id="rId133" ref="A134"/>
-    <hyperlink r:id="rId134" ref="A135"/>
-    <hyperlink r:id="rId135" ref="A136"/>
-    <hyperlink r:id="rId136" ref="A137"/>
-    <hyperlink r:id="rId137" ref="A138"/>
-    <hyperlink r:id="rId138" ref="A139"/>
-    <hyperlink r:id="rId139" ref="A140"/>
-    <hyperlink r:id="rId140" ref="A141"/>
-    <hyperlink r:id="rId141" ref="A142"/>
-    <hyperlink r:id="rId142" ref="A143"/>
-    <hyperlink r:id="rId143" ref="A144"/>
-    <hyperlink r:id="rId144" ref="A145"/>
-    <hyperlink r:id="rId145" ref="A146"/>
-    <hyperlink r:id="rId146" ref="A147"/>
-    <hyperlink r:id="rId147" ref="A148"/>
-    <hyperlink r:id="rId148" ref="A149"/>
-    <hyperlink r:id="rId149" ref="A150"/>
-    <hyperlink r:id="rId150" ref="A151"/>
-    <hyperlink r:id="rId151" ref="A152"/>
-    <hyperlink r:id="rId152" ref="A153"/>
-    <hyperlink r:id="rId153" ref="A154"/>
-    <hyperlink r:id="rId154" ref="A155"/>
-    <hyperlink r:id="rId155" ref="A156"/>
-    <hyperlink r:id="rId156" ref="A157"/>
-    <hyperlink r:id="rId157" ref="A158"/>
-    <hyperlink r:id="rId158" ref="A159"/>
-    <hyperlink r:id="rId159" ref="A160"/>
-    <hyperlink r:id="rId160" ref="A161"/>
-    <hyperlink r:id="rId161" ref="A162"/>
-    <hyperlink r:id="rId162" ref="A163"/>
-    <hyperlink r:id="rId163" ref="A164"/>
-    <hyperlink r:id="rId164" ref="A165"/>
-    <hyperlink r:id="rId165" ref="A166"/>
-    <hyperlink r:id="rId166" ref="A167"/>
-    <hyperlink r:id="rId167" ref="A168"/>
-    <hyperlink r:id="rId168" ref="A169"/>
-    <hyperlink r:id="rId169" ref="A170"/>
-    <hyperlink r:id="rId170" ref="A171"/>
-    <hyperlink r:id="rId171" ref="A172"/>
-    <hyperlink r:id="rId172" ref="A173"/>
-    <hyperlink r:id="rId173" ref="A174"/>
-    <hyperlink r:id="rId174" ref="A175"/>
-    <hyperlink r:id="rId175" ref="A176"/>
-    <hyperlink r:id="rId176" ref="A177"/>
-    <hyperlink r:id="rId177" ref="A178"/>
-    <hyperlink r:id="rId178" ref="A179"/>
-    <hyperlink r:id="rId179" ref="A180"/>
-    <hyperlink r:id="rId180" ref="A181"/>
-    <hyperlink r:id="rId181" ref="A182"/>
-    <hyperlink r:id="rId182" ref="A183"/>
-    <hyperlink r:id="rId183" ref="A184"/>
-    <hyperlink r:id="rId184" ref="A185"/>
-    <hyperlink r:id="rId185" ref="A186"/>
-    <hyperlink r:id="rId186" ref="A187"/>
-    <hyperlink r:id="rId187" ref="A188"/>
-    <hyperlink r:id="rId188" ref="A189"/>
-    <hyperlink r:id="rId189" ref="A190"/>
-    <hyperlink r:id="rId190" ref="A191"/>
-    <hyperlink r:id="rId191" ref="A192"/>
-    <hyperlink r:id="rId192" ref="A193"/>
-    <hyperlink r:id="rId193" ref="A194"/>
-    <hyperlink r:id="rId194" ref="A195"/>
-    <hyperlink r:id="rId195" ref="A196"/>
-    <hyperlink r:id="rId196" ref="A197"/>
-    <hyperlink r:id="rId197" ref="A198"/>
-    <hyperlink r:id="rId198" ref="A199"/>
-    <hyperlink r:id="rId199" ref="A200"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="A159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="A161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="A163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="A165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="A167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="A169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="A171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="A173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="A175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="A183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="A185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="A193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="A196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="A199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
   </hyperlinks>
-  <drawing r:id="rId200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>